--- a/BOMs/GNSS_FE.xlsx
+++ b/BOMs/GNSS_FE.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\micha\Documents\GitHub\GNSS_Workshop\BOMs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{4102FA39-FCE7-4018-B118-F5DF41C30E05}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{DC0069D7-F84D-4457-9EBC-60757B7D24B5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{6D7B7ACD-02DE-4D7B-8575-3641701C0301}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{D652D414-25A3-4800-BE52-F03A3676BFEF}"/>
   </bookViews>
   <sheets>
     <sheet name="GNSS_FE" sheetId="1" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="101" uniqueCount="71">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="69">
   <si>
     <t>Comment</t>
   </si>
@@ -53,12 +53,12 @@
     <t>Footprint</t>
   </si>
   <si>
+    <t>LibRef</t>
+  </si>
+  <si>
     <t>Quantity</t>
   </si>
   <si>
-    <t>Fitted</t>
-  </si>
-  <si>
     <t>ANT-GNSSCP-TH18L1</t>
   </si>
   <si>
@@ -68,30 +68,21 @@
     <t>ANT1</t>
   </si>
   <si>
+    <t>GRM1555C1H182JA01D</t>
+  </si>
+  <si>
+    <t>CAP CER 1800PF 50V C0G/NP0 0402</t>
+  </si>
+  <si>
+    <t>C4</t>
+  </si>
+  <si>
+    <t>0402_CAP</t>
+  </si>
+  <si>
     <t>GRM1555C1H102JA01D</t>
   </si>
   <si>
-    <t>CAP CER 1000PF 50V C0G/NP0 0402</t>
-  </si>
-  <si>
-    <t>C1, C2, C3</t>
-  </si>
-  <si>
-    <t>0402_CAP</t>
-  </si>
-  <si>
-    <t>Not Fitted</t>
-  </si>
-  <si>
-    <t>GRM1555C1H182JA01D</t>
-  </si>
-  <si>
-    <t>CAP CER 1800PF 50V C0G/NP0 0402</t>
-  </si>
-  <si>
-    <t>C4</t>
-  </si>
-  <si>
     <t>GJM1555C1H8R1BB01D</t>
   </si>
   <si>
@@ -143,6 +134,9 @@
     <t>WL-SMCW</t>
   </si>
   <si>
+    <t>150060RS75000</t>
+  </si>
+  <si>
     <t>MM8030-2610RJ3</t>
   </si>
   <si>
@@ -203,10 +197,7 @@
     <t>RES 0 OHM JUMPER 1/16W 0402</t>
   </si>
   <si>
-    <t>R1, R2, R3, R4, R5, R6, R7</t>
-  </si>
-  <si>
-    <t>Fitted, Not Fitted</t>
+    <t>R1, R2, R3</t>
   </si>
   <si>
     <t>RC0402FR-0710KL</t>
@@ -230,7 +221,10 @@
     <t>RC0603JR-070RL</t>
   </si>
   <si>
-    <t>Chip Resistor, 0 Ohm, +/- 5%, 0.1 W, -55 to 155 degC, 0603 (1608 Metric), RoHS, Tape and Reel</t>
+    <t>RC0603FR-071KL</t>
+  </si>
+  <si>
+    <t>1 kOhms ±1% 0.1W, 1/10W Chip Resistor 0603 (1608 Metric) Moisture Resistant Thick Film</t>
   </si>
   <si>
     <t>R10</t>
@@ -647,15 +641,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5A2EB33B-944E-4BE2-B663-F3A01C067E13}">
-  <dimension ref="A1:F20"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0FDE4B3F-BC50-4B76-8422-26CF0D130C27}">
+  <dimension ref="A1:F19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="5" width="19" customWidth="1"/>
-    <col min="6" max="6" width="16" customWidth="1"/>
+    <col min="1" max="6" width="19" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" s="4" customFormat="1" x14ac:dyDescent="0.3">
@@ -691,11 +684,11 @@
       <c r="D2" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="E2" s="1">
-        <v>1</v>
-      </c>
-      <c r="F2" s="2" t="s">
-        <v>5</v>
+      <c r="E2" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="F2" s="1">
+        <v>1</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.3">
@@ -711,11 +704,11 @@
       <c r="D3" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="E3" s="1">
-        <v>0</v>
-      </c>
-      <c r="F3" s="2" t="s">
+      <c r="E3" s="2" t="s">
         <v>13</v>
+      </c>
+      <c r="F3" s="1">
+        <v>1</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.3">
@@ -731,11 +724,11 @@
       <c r="D4" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="E4" s="1">
-        <v>1</v>
-      </c>
-      <c r="F4" s="2" t="s">
-        <v>5</v>
+      <c r="E4" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="F4" s="1">
+        <v>1</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.3">
@@ -751,11 +744,11 @@
       <c r="D5" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="E5" s="1">
-        <v>1</v>
-      </c>
-      <c r="F5" s="2" t="s">
-        <v>5</v>
+      <c r="E5" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="F5" s="1">
+        <v>1</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.3">
@@ -771,11 +764,11 @@
       <c r="D6" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="E6" s="1">
-        <v>1</v>
-      </c>
-      <c r="F6" s="2" t="s">
-        <v>5</v>
+      <c r="E6" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="F6" s="1">
+        <v>1</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.3">
@@ -789,173 +782,173 @@
         <v>25</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="E7" s="1">
-        <v>1</v>
-      </c>
-      <c r="F7" s="2" t="s">
-        <v>5</v>
+        <v>26</v>
+      </c>
+      <c r="E7" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="F7" s="1">
+        <v>1</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A8" s="2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="E8" s="1">
-        <v>1</v>
-      </c>
-      <c r="F8" s="2" t="s">
-        <v>5</v>
+        <v>30</v>
+      </c>
+      <c r="E8" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="F8" s="1">
+        <v>1</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A9" s="2" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="C9" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="E9" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="D9" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="E9" s="1">
-        <v>1</v>
-      </c>
-      <c r="F9" s="2" t="s">
-        <v>5</v>
+      <c r="F9" s="1">
+        <v>3</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A10" s="2" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="C10" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="D10" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="E10" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="D10" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="E10" s="1">
-        <v>3</v>
-      </c>
-      <c r="F10" s="2" t="s">
-        <v>5</v>
+      <c r="F10" s="1">
+        <v>1</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A11" s="2" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="E11" s="1">
-        <v>1</v>
-      </c>
-      <c r="F11" s="2" t="s">
-        <v>5</v>
+        <v>43</v>
+      </c>
+      <c r="E11" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="F11" s="1">
+        <v>1</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A12" s="2" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="B12" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="D12" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="C12" s="2" t="s">
+      <c r="E12" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="D12" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="E12" s="1">
-        <v>1</v>
-      </c>
-      <c r="F12" s="2" t="s">
-        <v>5</v>
+      <c r="F12" s="1">
+        <v>1</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A13" s="2" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B13" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="D13" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="C13" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="D13" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="E13" s="1">
-        <v>1</v>
-      </c>
-      <c r="F13" s="2" t="s">
-        <v>5</v>
+      <c r="E13" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="F13" s="1">
+        <v>4</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A14" s="2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="B14" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="C14" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="D14" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="E14" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="C14" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="D14" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="E14" s="1">
-        <v>4</v>
-      </c>
-      <c r="F14" s="2" t="s">
-        <v>5</v>
+      <c r="F14" s="1">
+        <v>3</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A15" s="2" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="D15" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="E15" s="1">
-        <v>3</v>
-      </c>
-      <c r="F15" s="2" t="s">
-        <v>55</v>
+      <c r="E15" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="F15" s="1">
+        <v>1</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.3">
@@ -969,93 +962,73 @@
         <v>58</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="E16" s="1">
-        <v>1</v>
-      </c>
-      <c r="F16" s="2" t="s">
-        <v>5</v>
+        <v>59</v>
+      </c>
+      <c r="E16" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="F16" s="1">
+        <v>1</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A17" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="B17" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="C17" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="D17" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="B17" s="2" t="s">
-        <v>60</v>
-      </c>
-      <c r="C17" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="D17" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="E17" s="1">
-        <v>1</v>
-      </c>
-      <c r="F17" s="2" t="s">
-        <v>5</v>
+      <c r="E17" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="F17" s="1">
+        <v>1</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A18" s="2" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="B18" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="C18" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="D18" s="2" t="s">
         <v>63</v>
       </c>
-      <c r="C18" s="2" t="s">
-        <v>64</v>
-      </c>
-      <c r="D18" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="E18" s="1">
-        <v>1</v>
-      </c>
-      <c r="F18" s="2" t="s">
-        <v>5</v>
+      <c r="E18" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="F18" s="1">
+        <v>2</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A19" s="2" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="B19" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="C19" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="D19" s="2" t="s">
         <v>66</v>
       </c>
-      <c r="C19" s="2" t="s">
-        <v>67</v>
-      </c>
-      <c r="D19" s="2" t="s">
-        <v>65</v>
-      </c>
-      <c r="E19" s="1">
-        <v>2</v>
-      </c>
-      <c r="F19" s="2" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A20" s="2" t="s">
-        <v>68</v>
-      </c>
-      <c r="B20" s="2" t="s">
-        <v>69</v>
-      </c>
-      <c r="C20" s="2" t="s">
-        <v>70</v>
-      </c>
-      <c r="D20" s="2" t="s">
-        <v>68</v>
-      </c>
-      <c r="E20" s="1">
-        <v>1</v>
-      </c>
-      <c r="F20" s="2" t="s">
-        <v>5</v>
+      <c r="E19" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="F19" s="1">
+        <v>1</v>
       </c>
     </row>
   </sheetData>

--- a/BOMs/GNSS_FE.xlsx
+++ b/BOMs/GNSS_FE.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\micha\Documents\GitHub\GNSS_Workshop\BOMs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{DC0069D7-F84D-4457-9EBC-60757B7D24B5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{FBB13EDC-C905-4F5F-B93E-F22DFE210129}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{D652D414-25A3-4800-BE52-F03A3676BFEF}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{73D87B01-3C48-4654-8AD4-9547ECA36388}"/>
   </bookViews>
   <sheets>
     <sheet name="GNSS_FE" sheetId="1" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="69">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="101" uniqueCount="72">
   <si>
     <t>Comment</t>
   </si>
@@ -53,12 +53,12 @@
     <t>Footprint</t>
   </si>
   <si>
-    <t>LibRef</t>
-  </si>
-  <si>
     <t>Quantity</t>
   </si>
   <si>
+    <t>Fitted</t>
+  </si>
+  <si>
     <t>ANT-GNSSCP-TH18L1</t>
   </si>
   <si>
@@ -68,6 +68,21 @@
     <t>ANT1</t>
   </si>
   <si>
+    <t>GRM1555C1H102JA01D</t>
+  </si>
+  <si>
+    <t>CAP CER 1000PF 50V C0G/NP0 0402</t>
+  </si>
+  <si>
+    <t>C1, C2, C3</t>
+  </si>
+  <si>
+    <t>0402_CAP</t>
+  </si>
+  <si>
+    <t>Not Fitted</t>
+  </si>
+  <si>
     <t>GRM1555C1H182JA01D</t>
   </si>
   <si>
@@ -77,12 +92,6 @@
     <t>C4</t>
   </si>
   <si>
-    <t>0402_CAP</t>
-  </si>
-  <si>
-    <t>GRM1555C1H102JA01D</t>
-  </si>
-  <si>
     <t>GJM1555C1H8R1BB01D</t>
   </si>
   <si>
@@ -134,9 +143,6 @@
     <t>WL-SMCW</t>
   </si>
   <si>
-    <t>150060RS75000</t>
-  </si>
-  <si>
     <t>MM8030-2610RJ3</t>
   </si>
   <si>
@@ -197,7 +203,10 @@
     <t>RES 0 OHM JUMPER 1/16W 0402</t>
   </si>
   <si>
-    <t>R1, R2, R3</t>
+    <t>R1, R2, R3, R4, R5, R6, R7</t>
+  </si>
+  <si>
+    <t>Fitted, Not Fitted</t>
   </si>
   <si>
     <t>RC0402FR-0710KL</t>
@@ -641,14 +650,15 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0FDE4B3F-BC50-4B76-8422-26CF0D130C27}">
-  <dimension ref="A1:F19"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5E416DD1-331E-44EC-8934-9368F9A59032}">
+  <dimension ref="A1:F20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="6" width="19" customWidth="1"/>
+    <col min="1" max="5" width="19" customWidth="1"/>
+    <col min="6" max="6" width="16" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" s="4" customFormat="1" x14ac:dyDescent="0.3">
@@ -684,11 +694,11 @@
       <c r="D2" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="E2" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="F2" s="1">
-        <v>1</v>
+      <c r="E2" s="1">
+        <v>1</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>5</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.3">
@@ -704,11 +714,11 @@
       <c r="D3" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="E3" s="2" t="s">
+      <c r="E3" s="1">
+        <v>0</v>
+      </c>
+      <c r="F3" s="2" t="s">
         <v>13</v>
-      </c>
-      <c r="F3" s="1">
-        <v>1</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.3">
@@ -724,11 +734,11 @@
       <c r="D4" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="E4" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="F4" s="1">
-        <v>1</v>
+      <c r="E4" s="1">
+        <v>1</v>
+      </c>
+      <c r="F4" s="2" t="s">
+        <v>5</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.3">
@@ -744,11 +754,11 @@
       <c r="D5" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="E5" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="F5" s="1">
-        <v>1</v>
+      <c r="E5" s="1">
+        <v>1</v>
+      </c>
+      <c r="F5" s="2" t="s">
+        <v>5</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.3">
@@ -764,11 +774,11 @@
       <c r="D6" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="E6" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="F6" s="1">
-        <v>1</v>
+      <c r="E6" s="1">
+        <v>1</v>
+      </c>
+      <c r="F6" s="2" t="s">
+        <v>5</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.3">
@@ -782,173 +792,173 @@
         <v>25</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="E7" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="F7" s="1">
-        <v>1</v>
+        <v>12</v>
+      </c>
+      <c r="E7" s="1">
+        <v>1</v>
+      </c>
+      <c r="F7" s="2" t="s">
+        <v>5</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A8" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="B8" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="B8" s="2" t="s">
+      <c r="C8" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="C8" s="2" t="s">
+      <c r="D8" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="D8" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="E8" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="F8" s="1">
-        <v>1</v>
+      <c r="E8" s="1">
+        <v>1</v>
+      </c>
+      <c r="F8" s="2" t="s">
+        <v>5</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A9" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="C9" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="B9" s="2" t="s">
+      <c r="D9" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="C9" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="D9" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="E9" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="F9" s="1">
-        <v>3</v>
+      <c r="E9" s="1">
+        <v>1</v>
+      </c>
+      <c r="F9" s="2" t="s">
+        <v>5</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A10" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="C10" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="B10" s="2" t="s">
+      <c r="D10" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="C10" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="D10" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="E10" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="F10" s="1">
-        <v>1</v>
+      <c r="E10" s="1">
+        <v>3</v>
+      </c>
+      <c r="F10" s="2" t="s">
+        <v>5</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A11" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="C11" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="B11" s="2" t="s">
+      <c r="D11" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="C11" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="D11" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="E11" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="F11" s="1">
-        <v>1</v>
+      <c r="E11" s="1">
+        <v>1</v>
+      </c>
+      <c r="F11" s="2" t="s">
+        <v>5</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A12" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="C12" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="B12" s="2" t="s">
+      <c r="D12" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="C12" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="D12" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="E12" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="F12" s="1">
-        <v>1</v>
+      <c r="E12" s="1">
+        <v>1</v>
+      </c>
+      <c r="F12" s="2" t="s">
+        <v>5</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A13" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="B13" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="B13" s="2" t="s">
+      <c r="C13" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="C13" s="2" t="s">
-        <v>49</v>
-      </c>
       <c r="D13" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="E13" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="F13" s="1">
-        <v>4</v>
+        <v>45</v>
+      </c>
+      <c r="E13" s="1">
+        <v>1</v>
+      </c>
+      <c r="F13" s="2" t="s">
+        <v>5</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A14" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="B14" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="B14" s="2" t="s">
+      <c r="C14" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="C14" s="2" t="s">
-        <v>52</v>
-      </c>
       <c r="D14" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="E14" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="F14" s="1">
-        <v>3</v>
+        <v>49</v>
+      </c>
+      <c r="E14" s="1">
+        <v>4</v>
+      </c>
+      <c r="F14" s="2" t="s">
+        <v>5</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A15" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="B15" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="B15" s="2" t="s">
+      <c r="C15" s="2" t="s">
         <v>54</v>
-      </c>
-      <c r="C15" s="2" t="s">
-        <v>55</v>
       </c>
       <c r="D15" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="E15" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="F15" s="1">
-        <v>1</v>
+      <c r="E15" s="1">
+        <v>3</v>
+      </c>
+      <c r="F15" s="2" t="s">
+        <v>55</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.3">
@@ -962,33 +972,33 @@
         <v>58</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="E16" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="F16" s="1">
-        <v>1</v>
+        <v>12</v>
+      </c>
+      <c r="E16" s="1">
+        <v>1</v>
+      </c>
+      <c r="F16" s="2" t="s">
+        <v>5</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A17" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="B17" s="2" t="s">
         <v>60</v>
       </c>
-      <c r="B17" s="2" t="s">
+      <c r="C17" s="2" t="s">
         <v>61</v>
       </c>
-      <c r="C17" s="2" t="s">
+      <c r="D17" s="2" t="s">
         <v>62</v>
       </c>
-      <c r="D17" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="E17" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="F17" s="1">
-        <v>1</v>
+      <c r="E17" s="1">
+        <v>1</v>
+      </c>
+      <c r="F17" s="2" t="s">
+        <v>5</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.3">
@@ -1002,13 +1012,13 @@
         <v>65</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>63</v>
-      </c>
-      <c r="E18" s="2" t="s">
-        <v>63</v>
-      </c>
-      <c r="F18" s="1">
-        <v>2</v>
+        <v>62</v>
+      </c>
+      <c r="E18" s="1">
+        <v>1</v>
+      </c>
+      <c r="F18" s="2" t="s">
+        <v>5</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.3">
@@ -1024,11 +1034,31 @@
       <c r="D19" s="2" t="s">
         <v>66</v>
       </c>
-      <c r="E19" s="2" t="s">
-        <v>66</v>
-      </c>
-      <c r="F19" s="1">
-        <v>1</v>
+      <c r="E19" s="1">
+        <v>2</v>
+      </c>
+      <c r="F19" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A20" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="B20" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="C20" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="D20" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="E20" s="1">
+        <v>1</v>
+      </c>
+      <c r="F20" s="2" t="s">
+        <v>5</v>
       </c>
     </row>
   </sheetData>
